--- a/Especial_Uniandes_2023/data/supervision_pre_es.xlsx
+++ b/Especial_Uniandes_2023/data/supervision_pre_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\Especial_Uniandes_2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B588706E-D96E-4CCC-BC5A-2F83BBD6247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AA273-1F30-46F2-A44E-B5A66D98030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3030" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4695" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>what</t>
   </si>
@@ -119,12 +119,6 @@
     <t>2015 - 2016</t>
   </si>
   <si>
-    <t>\textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Supervisión docente (2019 - actualmente)</t>
-  </si>
-  <si>
     <t>Desde 2017</t>
   </si>
   <si>
@@ -216,6 +210,9 @@
   </si>
   <si>
     <t>\href{https://www.linkedin.com/in/andres-castellanos-chacon/}{Andrés Castellanos-Chacón}</t>
+  </si>
+  <si>
+    <t>Supervisión docente (Desde 2019)</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,16 +1108,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,53 +1135,61 @@
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>2023</v>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1192,47 +1197,47 @@
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1240,84 +1245,84 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1328,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -1342,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1362,13 +1367,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1376,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1396,13 +1401,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1410,34 +1415,24 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1509,13 +1504,6 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
